--- a/biology/Mycologie/Lentinus/Lentinus.xlsx
+++ b/biology/Mycologie/Lentinus/Lentinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lentinus est un genre de champignons basidiomycètes renfermant des espèces longtemps classées parmi les Agaricales dans la famille des Pleurotaceae (Panus), mais à présent réunies aux Polyporaceae. Leurs spores sont lisses, non amyloïdes. 
 Ce genre a été dépouillé, notamment au profit des genres Lentinellus et Lentinula, il ne recouvre donc plus tous les champignons communément nommés Lentins mais comprend encore plusieurs dizaines d'espèces. L'espèce type est Lentinus crinitus.
@@ -514,7 +526,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lentinus cubensis
 Lentinus sajor-caju
